--- a/testData/WebForm/TC037_WF_RRYN_OneYN_TwoN_Test.xlsx
+++ b/testData/WebForm/TC037_WF_RRYN_OneYN_TwoN_Test.xlsx
@@ -11,7 +11,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="108">
   <si>
     <t>BuildUrl</t>
   </si>
@@ -264,12 +264,6 @@
     <t>two</t>
   </si>
   <si>
-    <t>9840002058</t>
-  </si>
-  <si>
-    <t>9840040228</t>
-  </si>
-  <si>
     <t>Carol</t>
   </si>
   <si>
@@ -300,9 +294,6 @@
     <t>9840050400</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>9840072784</t>
   </si>
   <si>
@@ -331,9 +322,6 @@
   </si>
   <si>
     <t>9840046848</t>
-  </si>
-  <si>
-    <t>9840090134</t>
   </si>
   <si>
     <t>9840006870</t>
@@ -361,7 +349,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -751,92 +738,92 @@
   <dimension ref="A1:BG18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="O2" sqref="O2:O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="52.1796875"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="17.36328125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="26.08984375"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="27.7265625"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="10.81640625"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="24.54296875"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="18.7265625"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="23.453125"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="29.54296875"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="20.0"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="9.08984375"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="15.90625"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="14.26953125"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="10.54296875"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="19" max="19" customWidth="true" width="10.54296875"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="22" max="22" customWidth="true" width="10.54296875"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="25" max="25" customWidth="true" width="10.54296875"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="10.54296875"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="10.54296875"/>
-    <col min="32" max="33" customWidth="true" width="9.6328125"/>
-    <col min="34" max="35" customWidth="true" width="15.26953125"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" width="11.453125"/>
-    <col min="37" max="37" customWidth="true" width="17.81640625"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" width="27.36328125"/>
-    <col min="39" max="40" bestFit="true" customWidth="true" width="13.90625"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" width="15.26953125"/>
-    <col min="42" max="43" customWidth="true" width="15.26953125"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" width="11.453125"/>
-    <col min="45" max="46" customWidth="true" width="11.453125"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" width="11.453125"/>
-    <col min="48" max="54" customWidth="true" width="11.453125"/>
-    <col min="55" max="55" bestFit="true" customWidth="true" width="11.81640625"/>
-    <col min="57" max="57" bestFit="true" customWidth="true" width="10.7265625"/>
-    <col min="58" max="58" bestFit="true" customWidth="true" width="10.6328125"/>
+    <col min="1" max="1" width="52.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.54296875" customWidth="1"/>
+    <col min="20" max="20" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.54296875" customWidth="1"/>
+    <col min="23" max="23" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.54296875" customWidth="1"/>
+    <col min="26" max="26" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="9.6328125" customWidth="1"/>
+    <col min="34" max="35" width="15.26953125" customWidth="1"/>
+    <col min="36" max="36" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="17.81640625" customWidth="1"/>
+    <col min="38" max="38" width="27.36328125" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="15.26953125" customWidth="1"/>
+    <col min="44" max="44" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="45" max="46" width="11.453125" customWidth="1"/>
+    <col min="47" max="47" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="48" max="54" width="11.453125" customWidth="1"/>
+    <col min="55" max="55" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="10.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:59" x14ac:dyDescent="0.35">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="E1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" t="s" s="0">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s" s="0">
+      <c r="G1" t="s">
         <v>1</v>
       </c>
-      <c r="H1" t="s" s="0">
+      <c r="H1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="0">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s" s="0">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s" s="0">
+      <c r="K1" t="s">
         <v>5</v>
       </c>
-      <c r="L1" t="s" s="0">
+      <c r="L1" t="s">
         <v>6</v>
       </c>
       <c r="M1" s="4" t="s">
@@ -845,139 +832,139 @@
       <c r="N1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="O1" t="s" s="0">
+      <c r="O1" t="s">
         <v>18</v>
       </c>
-      <c r="P1" t="s" s="0">
+      <c r="P1" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" t="s" s="0">
+      <c r="Q1" t="s">
         <v>26</v>
       </c>
-      <c r="R1" t="s" s="0">
+      <c r="R1" t="s">
         <v>27</v>
       </c>
-      <c r="S1" t="s" s="0">
+      <c r="S1" t="s">
         <v>23</v>
       </c>
-      <c r="T1" t="s" s="0">
+      <c r="T1" t="s">
         <v>26</v>
       </c>
-      <c r="U1" t="s" s="0">
+      <c r="U1" t="s">
         <v>27</v>
       </c>
-      <c r="V1" t="s" s="0">
+      <c r="V1" t="s">
         <v>24</v>
       </c>
-      <c r="W1" t="s" s="0">
+      <c r="W1" t="s">
         <v>26</v>
       </c>
-      <c r="X1" t="s" s="0">
+      <c r="X1" t="s">
         <v>27</v>
       </c>
-      <c r="Y1" t="s" s="0">
+      <c r="Y1" t="s">
         <v>25</v>
       </c>
-      <c r="Z1" t="s" s="0">
+      <c r="Z1" t="s">
         <v>26</v>
       </c>
-      <c r="AA1" t="s" s="0">
+      <c r="AA1" t="s">
         <v>27</v>
       </c>
-      <c r="AB1" t="s" s="0">
+      <c r="AB1" t="s">
         <v>46</v>
       </c>
-      <c r="AC1" t="s" s="0">
+      <c r="AC1" t="s">
         <v>26</v>
       </c>
-      <c r="AD1" t="s" s="0">
+      <c r="AD1" t="s">
         <v>27</v>
       </c>
-      <c r="AE1" t="s" s="0">
+      <c r="AE1" t="s">
         <v>47</v>
       </c>
-      <c r="AF1" t="s" s="0">
+      <c r="AF1" t="s">
         <v>26</v>
       </c>
-      <c r="AG1" t="s" s="0">
+      <c r="AG1" t="s">
         <v>27</v>
       </c>
-      <c r="AH1" t="s" s="0">
+      <c r="AH1" t="s">
         <v>53</v>
       </c>
-      <c r="AI1" t="s" s="0">
+      <c r="AI1" t="s">
         <v>26</v>
       </c>
-      <c r="AJ1" t="s" s="0">
+      <c r="AJ1" t="s">
         <v>27</v>
       </c>
-      <c r="AK1" t="s" s="0">
+      <c r="AK1" t="s">
         <v>28</v>
       </c>
-      <c r="AL1" t="s" s="0">
+      <c r="AL1" t="s">
         <v>30</v>
       </c>
-      <c r="AM1" t="s" s="0">
+      <c r="AM1" t="s">
         <v>64</v>
       </c>
-      <c r="AN1" t="s" s="0">
+      <c r="AN1" t="s">
         <v>65</v>
       </c>
-      <c r="AO1" t="s" s="0">
+      <c r="AO1" t="s">
         <v>49</v>
       </c>
-      <c r="AP1" t="s" s="0">
+      <c r="AP1" t="s">
         <v>56</v>
       </c>
-      <c r="AQ1" t="s" s="0">
+      <c r="AQ1" t="s">
         <v>26</v>
       </c>
-      <c r="AR1" t="s" s="0">
+      <c r="AR1" t="s">
         <v>27</v>
       </c>
-      <c r="AS1" t="s" s="0">
+      <c r="AS1" t="s">
         <v>59</v>
       </c>
-      <c r="AT1" t="s" s="0">
+      <c r="AT1" t="s">
         <v>26</v>
       </c>
-      <c r="AU1" t="s" s="0">
+      <c r="AU1" t="s">
         <v>27</v>
       </c>
-      <c r="AV1" t="s" s="0">
+      <c r="AV1" t="s">
         <v>60</v>
       </c>
-      <c r="AW1" t="s" s="0">
+      <c r="AW1" t="s">
         <v>26</v>
       </c>
-      <c r="AX1" t="s" s="0">
+      <c r="AX1" t="s">
         <v>27</v>
       </c>
-      <c r="AY1" t="s" s="0">
+      <c r="AY1" t="s">
         <v>61</v>
       </c>
-      <c r="AZ1" t="s" s="0">
+      <c r="AZ1" t="s">
         <v>26</v>
       </c>
-      <c r="BA1" t="s" s="0">
+      <c r="BA1" t="s">
         <v>27</v>
       </c>
-      <c r="BB1" t="s" s="0">
+      <c r="BB1" t="s">
         <v>62</v>
       </c>
-      <c r="BC1" t="s" s="0">
+      <c r="BC1" t="s">
         <v>26</v>
       </c>
-      <c r="BD1" t="s" s="0">
+      <c r="BD1" t="s">
         <v>27</v>
       </c>
-      <c r="BE1" t="s" s="0">
+      <c r="BE1" t="s">
         <v>63</v>
       </c>
-      <c r="BF1" t="s" s="0">
+      <c r="BF1" t="s">
         <v>54</v>
       </c>
-      <c r="BG1" t="s" s="0">
+      <c r="BG1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -991,31 +978,31 @@
       <c r="C2" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="D2" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F2" t="s" s="0">
-        <v>92</v>
+      <c r="F2" t="s">
+        <v>90</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H2" t="s" s="0">
+      <c r="H2" t="s">
         <v>31</v>
       </c>
-      <c r="I2" t="s" s="0">
+      <c r="I2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" t="s" s="0">
+      <c r="J2" t="s">
         <v>55</v>
       </c>
-      <c r="K2" t="s" s="0">
+      <c r="K2" t="s">
         <v>13</v>
       </c>
-      <c r="L2" t="s" s="0">
+      <c r="L2" t="s">
         <v>40</v>
       </c>
       <c r="M2" s="4" t="s">
@@ -1024,47 +1011,47 @@
       <c r="N2" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="O2" t="s" s="0">
-        <v>48</v>
+      <c r="O2" t="s">
+        <v>17</v>
       </c>
       <c r="P2" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="Q2" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="R2" t="s" s="0">
+      <c r="Q2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R2" t="s">
         <v>48</v>
       </c>
       <c r="S2" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="T2" t="s" s="0">
+      <c r="T2" t="s">
         <v>48</v>
       </c>
-      <c r="U2" t="s" s="0">
+      <c r="U2" t="s">
         <v>48</v>
       </c>
       <c r="V2" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="W2" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="X2" t="s" s="0">
+      <c r="W2" t="s">
+        <v>17</v>
+      </c>
+      <c r="X2" t="s">
         <v>48</v>
       </c>
       <c r="Y2" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="Z2" t="s" s="0">
+      <c r="Z2" t="s">
         <v>48</v>
       </c>
-      <c r="AA2" t="s" s="0">
+      <c r="AA2" t="s">
         <v>48</v>
       </c>
       <c r="AB2" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AC2" s="4" t="s">
         <v>17</v>
@@ -1073,7 +1060,7 @@
         <v>48</v>
       </c>
       <c r="AE2" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AF2" s="4" t="s">
         <v>48</v>
@@ -1082,7 +1069,7 @@
         <v>48</v>
       </c>
       <c r="AH2" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AI2" s="4" t="s">
         <v>17</v>
@@ -1090,23 +1077,23 @@
       <c r="AJ2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AK2" t="s" s="0">
+      <c r="AK2" t="s">
         <v>29</v>
       </c>
       <c r="AL2" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="AM2" t="s" s="0">
-        <v>106</v>
-      </c>
-      <c r="AN2" s="0">
+        <v>89</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AN2">
         <v>0</v>
       </c>
-      <c r="AO2" t="s" s="0">
-        <v>106</v>
+      <c r="AO2" t="s">
+        <v>102</v>
       </c>
       <c r="AP2" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AQ2" s="4" t="s">
         <v>48</v>
@@ -1115,7 +1102,7 @@
         <v>48</v>
       </c>
       <c r="AS2" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AT2" s="4" t="s">
         <v>48</v>
@@ -1124,7 +1111,7 @@
         <v>48</v>
       </c>
       <c r="AV2" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AW2" s="4" t="s">
         <v>48</v>
@@ -1133,7 +1120,7 @@
         <v>48</v>
       </c>
       <c r="AY2" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AZ2" s="4" t="s">
         <v>48</v>
@@ -1142,7 +1129,7 @@
         <v>48</v>
       </c>
       <c r="BB2" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="BC2" s="4" t="s">
         <v>48</v>
@@ -1165,28 +1152,28 @@
       <c r="C3" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D3" t="s" s="0">
+      <c r="D3" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F3" t="s" s="0">
-        <v>100</v>
+      <c r="F3" t="s">
+        <v>97</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H3" t="s" s="0">
+      <c r="H3" t="s">
         <v>32</v>
       </c>
-      <c r="I3" t="s" s="0">
+      <c r="I3" t="s">
         <v>10</v>
       </c>
-      <c r="J3" t="s" s="0">
+      <c r="J3" t="s">
         <v>55</v>
       </c>
-      <c r="K3" t="s" s="0">
+      <c r="K3" t="s">
         <v>13</v>
       </c>
       <c r="L3" s="4" t="s">
@@ -1198,8 +1185,8 @@
       <c r="N3" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="O3" t="s" s="0">
-        <v>48</v>
+      <c r="O3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:59" x14ac:dyDescent="0.35">
@@ -1212,28 +1199,28 @@
       <c r="C4" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D4" t="s" s="0">
+      <c r="D4" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F4" t="s" s="0">
-        <v>101</v>
+      <c r="F4" t="s">
+        <v>98</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H4" t="s" s="0">
+      <c r="H4" t="s">
         <v>33</v>
       </c>
-      <c r="I4" t="s" s="0">
+      <c r="I4" t="s">
         <v>10</v>
       </c>
-      <c r="J4" t="s" s="0">
+      <c r="J4" t="s">
         <v>55</v>
       </c>
-      <c r="K4" t="s" s="0">
+      <c r="K4" t="s">
         <v>13</v>
       </c>
       <c r="L4" s="4" t="s">
@@ -1245,8 +1232,8 @@
       <c r="N4" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="O4" t="s" s="0">
-        <v>48</v>
+      <c r="O4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:59" x14ac:dyDescent="0.35">
@@ -1259,28 +1246,28 @@
       <c r="C5" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D5" t="s" s="0">
+      <c r="D5" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F5" t="s" s="0">
-        <v>105</v>
+      <c r="F5" t="s">
+        <v>101</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H5" t="s" s="0">
+      <c r="H5" t="s">
         <v>34</v>
       </c>
-      <c r="I5" t="s" s="0">
+      <c r="I5" t="s">
         <v>10</v>
       </c>
-      <c r="J5" t="s" s="0">
+      <c r="J5" t="s">
         <v>55</v>
       </c>
-      <c r="K5" t="s" s="0">
+      <c r="K5" t="s">
         <v>13</v>
       </c>
       <c r="L5" s="4" t="s">
@@ -1292,7 +1279,7 @@
       <c r="N5" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="O5" t="s" s="0">
+      <c r="O5" t="s">
         <v>17</v>
       </c>
       <c r="AE5" s="4"/>
@@ -1307,31 +1294,31 @@
       <c r="C6" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D6" t="s" s="0">
+      <c r="D6" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F6" t="s" s="0">
-        <v>94</v>
+      <c r="F6" t="s">
+        <v>91</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H6" t="s" s="0">
+      <c r="H6" t="s">
         <v>35</v>
       </c>
-      <c r="I6" t="s" s="0">
+      <c r="I6" t="s">
         <v>10</v>
       </c>
-      <c r="J6" t="s" s="0">
+      <c r="J6" t="s">
         <v>55</v>
       </c>
-      <c r="K6" t="s" s="0">
+      <c r="K6" t="s">
         <v>13</v>
       </c>
-      <c r="L6" t="s" s="0">
+      <c r="L6" t="s">
         <v>41</v>
       </c>
       <c r="M6" s="4" t="s">
@@ -1340,8 +1327,8 @@
       <c r="N6" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="O6" t="s" s="0">
-        <v>48</v>
+      <c r="O6" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:59" x14ac:dyDescent="0.35">
@@ -1354,14 +1341,14 @@
       <c r="C7" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D7" t="s" s="0">
+      <c r="D7" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F7" t="s" s="0">
-        <v>107</v>
+      <c r="F7" t="s">
+        <v>103</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>11</v>
@@ -1369,16 +1356,16 @@
       <c r="H7" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I7" t="s" s="0">
+      <c r="I7" t="s">
         <v>10</v>
       </c>
-      <c r="J7" t="s" s="0">
+      <c r="J7" t="s">
         <v>58</v>
       </c>
-      <c r="K7" t="s" s="0">
+      <c r="K7" t="s">
         <v>13</v>
       </c>
-      <c r="L7" t="s" s="0">
+      <c r="L7" t="s">
         <v>40</v>
       </c>
       <c r="M7" s="4" t="s">
@@ -1387,7 +1374,7 @@
       <c r="N7" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="O7" t="s" s="0">
+      <c r="O7" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1401,31 +1388,31 @@
       <c r="C8" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D8" t="s" s="0">
+      <c r="D8" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F8" t="s" s="0">
-        <v>102</v>
+      <c r="F8" t="s">
+        <v>99</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H8" t="s" s="0">
+      <c r="H8" t="s">
         <v>36</v>
       </c>
-      <c r="I8" t="s" s="0">
+      <c r="I8" t="s">
         <v>10</v>
       </c>
-      <c r="J8" t="s" s="0">
+      <c r="J8" t="s">
         <v>55</v>
       </c>
-      <c r="K8" t="s" s="0">
+      <c r="K8" t="s">
         <v>13</v>
       </c>
-      <c r="L8" t="s" s="0">
+      <c r="L8" t="s">
         <v>39</v>
       </c>
       <c r="M8" s="4" t="s">
@@ -1434,8 +1421,8 @@
       <c r="N8" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="O8" t="s" s="0">
-        <v>48</v>
+      <c r="O8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:59" x14ac:dyDescent="0.35">
@@ -1448,31 +1435,31 @@
       <c r="C9" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D9" t="s" s="0">
+      <c r="D9" t="s">
         <v>12</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F9" t="s" s="0">
-        <v>108</v>
+      <c r="F9" t="s">
+        <v>104</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H9" t="s" s="0">
+      <c r="H9" t="s">
         <v>37</v>
       </c>
-      <c r="I9" t="s" s="0">
+      <c r="I9" t="s">
         <v>10</v>
       </c>
-      <c r="J9" t="s" s="0">
+      <c r="J9" t="s">
         <v>55</v>
       </c>
-      <c r="K9" t="s" s="0">
+      <c r="K9" t="s">
         <v>13</v>
       </c>
-      <c r="L9" t="s" s="0">
+      <c r="L9" t="s">
         <v>66</v>
       </c>
       <c r="M9" s="4" t="s">
@@ -1481,7 +1468,7 @@
       <c r="N9" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="O9" t="s" s="0">
+      <c r="O9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1495,31 +1482,31 @@
       <c r="C10" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D10" t="s" s="0">
+      <c r="D10" t="s">
         <v>12</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F10" t="s" s="0">
-        <v>103</v>
+      <c r="F10" t="s">
+        <v>100</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H10" t="s" s="0">
+      <c r="H10" t="s">
         <v>38</v>
       </c>
-      <c r="I10" t="s" s="0">
+      <c r="I10" t="s">
         <v>10</v>
       </c>
-      <c r="J10" t="s" s="0">
+      <c r="J10" t="s">
         <v>55</v>
       </c>
-      <c r="K10" t="s" s="0">
+      <c r="K10" t="s">
         <v>13</v>
       </c>
-      <c r="L10" t="s" s="0">
+      <c r="L10" t="s">
         <v>39</v>
       </c>
       <c r="M10" s="4" t="s">
@@ -1528,8 +1515,8 @@
       <c r="N10" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="O10" t="s" s="0">
-        <v>48</v>
+      <c r="O10" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:59" x14ac:dyDescent="0.35">
@@ -1542,31 +1529,31 @@
       <c r="C11" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D11" t="s" s="0">
+      <c r="D11" t="s">
         <v>12</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F11" t="s" s="0">
-        <v>95</v>
+      <c r="F11" t="s">
+        <v>92</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H11" t="s" s="0">
+      <c r="H11" t="s">
         <v>72</v>
       </c>
-      <c r="I11" t="s" s="0">
+      <c r="I11" t="s">
         <v>10</v>
       </c>
-      <c r="J11" t="s" s="0">
+      <c r="J11" t="s">
         <v>55</v>
       </c>
-      <c r="K11" t="s" s="0">
+      <c r="K11" t="s">
         <v>13</v>
       </c>
-      <c r="L11" t="s" s="0">
+      <c r="L11" t="s">
         <v>80</v>
       </c>
       <c r="M11" s="4" t="s">
@@ -1575,8 +1562,8 @@
       <c r="N11" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="O11" t="s" s="0">
-        <v>48</v>
+      <c r="O11" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:59" x14ac:dyDescent="0.35">
@@ -1589,31 +1576,31 @@
       <c r="C12" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D12" t="s" s="0">
+      <c r="D12" t="s">
         <v>12</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F12" t="s" s="0">
-        <v>96</v>
+      <c r="F12" t="s">
+        <v>93</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H12" t="s" s="0">
+      <c r="H12" t="s">
         <v>73</v>
       </c>
-      <c r="I12" t="s" s="0">
+      <c r="I12" t="s">
         <v>10</v>
       </c>
-      <c r="J12" t="s" s="0">
+      <c r="J12" t="s">
         <v>55</v>
       </c>
-      <c r="K12" t="s" s="0">
+      <c r="K12" t="s">
         <v>13</v>
       </c>
-      <c r="L12" t="s" s="0">
+      <c r="L12" t="s">
         <v>40</v>
       </c>
       <c r="M12" s="4" t="s">
@@ -1622,8 +1609,8 @@
       <c r="N12" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="O12" t="s" s="0">
-        <v>48</v>
+      <c r="O12" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:59" x14ac:dyDescent="0.35">
@@ -1636,31 +1623,31 @@
       <c r="C13" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D13" t="s" s="0">
+      <c r="D13" t="s">
         <v>12</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F13" t="s" s="0">
-        <v>109</v>
+      <c r="F13" t="s">
+        <v>105</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H13" t="s" s="0">
+      <c r="H13" t="s">
         <v>74</v>
       </c>
-      <c r="I13" t="s" s="0">
+      <c r="I13" t="s">
         <v>10</v>
       </c>
-      <c r="J13" t="s" s="0">
+      <c r="J13" t="s">
         <v>55</v>
       </c>
-      <c r="K13" t="s" s="0">
+      <c r="K13" t="s">
         <v>13</v>
       </c>
-      <c r="L13" t="s" s="0">
+      <c r="L13" t="s">
         <v>66</v>
       </c>
       <c r="M13" s="4" t="s">
@@ -1669,7 +1656,7 @@
       <c r="N13" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="O13" t="s" s="0">
+      <c r="O13" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1683,31 +1670,31 @@
       <c r="C14" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D14" t="s" s="0">
+      <c r="D14" t="s">
         <v>12</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F14" t="s" s="0">
-        <v>97</v>
+      <c r="F14" t="s">
+        <v>94</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H14" t="s" s="0">
+      <c r="H14" t="s">
         <v>75</v>
       </c>
-      <c r="I14" t="s" s="0">
+      <c r="I14" t="s">
         <v>10</v>
       </c>
-      <c r="J14" t="s" s="0">
+      <c r="J14" t="s">
         <v>55</v>
       </c>
-      <c r="K14" t="s" s="0">
+      <c r="K14" t="s">
         <v>13</v>
       </c>
-      <c r="L14" t="s" s="0">
+      <c r="L14" t="s">
         <v>41</v>
       </c>
       <c r="M14" s="4" t="s">
@@ -1716,8 +1703,8 @@
       <c r="N14" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="O14" t="s" s="0">
-        <v>48</v>
+      <c r="O14" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:59" x14ac:dyDescent="0.35">
@@ -1730,28 +1717,28 @@
       <c r="C15" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D15" t="s" s="0">
+      <c r="D15" t="s">
         <v>12</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F15" t="s" s="0">
-        <v>110</v>
+      <c r="F15" t="s">
+        <v>106</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H15" t="s" s="0">
+      <c r="H15" t="s">
         <v>76</v>
       </c>
-      <c r="I15" t="s" s="0">
+      <c r="I15" t="s">
         <v>10</v>
       </c>
-      <c r="J15" t="s" s="0">
+      <c r="J15" t="s">
         <v>55</v>
       </c>
-      <c r="K15" t="s" s="0">
+      <c r="K15" t="s">
         <v>13</v>
       </c>
       <c r="L15" s="10" t="s">
@@ -1763,7 +1750,7 @@
       <c r="N15" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="O15" t="s" s="0">
+      <c r="O15" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1777,31 +1764,31 @@
       <c r="C16" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D16" t="s" s="0">
+      <c r="D16" t="s">
         <v>12</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F16" t="s" s="0">
-        <v>98</v>
+      <c r="F16" t="s">
+        <v>95</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H16" t="s" s="0">
+      <c r="H16" t="s">
         <v>77</v>
       </c>
-      <c r="I16" t="s" s="0">
+      <c r="I16" t="s">
         <v>10</v>
       </c>
-      <c r="J16" t="s" s="0">
+      <c r="J16" t="s">
         <v>55</v>
       </c>
-      <c r="K16" t="s" s="0">
+      <c r="K16" t="s">
         <v>13</v>
       </c>
-      <c r="L16" t="s" s="0">
+      <c r="L16" t="s">
         <v>80</v>
       </c>
       <c r="M16" s="4" t="s">
@@ -1810,8 +1797,8 @@
       <c r="N16" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="O16" t="s" s="0">
-        <v>48</v>
+      <c r="O16" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.35">
@@ -1824,31 +1811,31 @@
       <c r="C17" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D17" t="s" s="0">
+      <c r="D17" t="s">
         <v>12</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F17" t="s" s="0">
-        <v>111</v>
+      <c r="F17" t="s">
+        <v>107</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H17" t="s" s="0">
+      <c r="H17" t="s">
         <v>78</v>
       </c>
-      <c r="I17" t="s" s="0">
+      <c r="I17" t="s">
         <v>10</v>
       </c>
-      <c r="J17" t="s" s="0">
+      <c r="J17" t="s">
         <v>55</v>
       </c>
-      <c r="K17" t="s" s="0">
+      <c r="K17" t="s">
         <v>13</v>
       </c>
-      <c r="L17" t="s" s="0">
+      <c r="L17" t="s">
         <v>40</v>
       </c>
       <c r="M17" s="4" t="s">
@@ -1857,7 +1844,7 @@
       <c r="N17" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="O17" t="s" s="0">
+      <c r="O17" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1871,31 +1858,31 @@
       <c r="C18" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D18" t="s" s="0">
+      <c r="D18" t="s">
         <v>12</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F18" t="s" s="0">
-        <v>99</v>
+      <c r="F18" t="s">
+        <v>96</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H18" t="s" s="0">
+      <c r="H18" t="s">
         <v>79</v>
       </c>
-      <c r="I18" t="s" s="0">
+      <c r="I18" t="s">
         <v>10</v>
       </c>
-      <c r="J18" t="s" s="0">
+      <c r="J18" t="s">
         <v>55</v>
       </c>
-      <c r="K18" t="s" s="0">
+      <c r="K18" t="s">
         <v>13</v>
       </c>
-      <c r="L18" t="s" s="0">
+      <c r="L18" t="s">
         <v>66</v>
       </c>
       <c r="M18" s="4" t="s">
@@ -1904,8 +1891,8 @@
       <c r="N18" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="O18" t="s" s="0">
-        <v>48</v>
+      <c r="O18" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/testData/WebForm/TC037_WF_RRYN_OneYN_TwoN_Test.xlsx
+++ b/testData/WebForm/TC037_WF_RRYN_OneYN_TwoN_Test.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="126">
   <si>
     <t>BuildUrl</t>
   </si>
@@ -291,64 +291,119 @@
     <t>WF_RRYN_OneYN_TwoN</t>
   </si>
   <si>
-    <t>9840050400</t>
-  </si>
-  <si>
-    <t>9840072784</t>
-  </si>
-  <si>
-    <t>9840023469</t>
-  </si>
-  <si>
-    <t>9840088406</t>
-  </si>
-  <si>
-    <t>9840052334</t>
-  </si>
-  <si>
-    <t>9840003194</t>
-  </si>
-  <si>
-    <t>9840049429</t>
-  </si>
-  <si>
-    <t>9840005129</t>
-  </si>
-  <si>
-    <t>9840059871</t>
-  </si>
-  <si>
-    <t>9840091128</t>
-  </si>
-  <si>
-    <t>9840046848</t>
-  </si>
-  <si>
-    <t>9840006870</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
-    <t>9840015825</t>
-  </si>
-  <si>
-    <t>9840085899</t>
-  </si>
-  <si>
-    <t>9840058270</t>
-  </si>
-  <si>
-    <t>9840097240</t>
-  </si>
-  <si>
-    <t>9840036081</t>
+    <t>9840010858</t>
+  </si>
+  <si>
+    <t>9840011383</t>
+  </si>
+  <si>
+    <t>9840061740</t>
+  </si>
+  <si>
+    <t>9840086841</t>
+  </si>
+  <si>
+    <t>9840080674</t>
+  </si>
+  <si>
+    <t>9840057289</t>
+  </si>
+  <si>
+    <t>9840022618</t>
+  </si>
+  <si>
+    <t>9840070672</t>
+  </si>
+  <si>
+    <t>9840070468</t>
+  </si>
+  <si>
+    <t>9840061819</t>
+  </si>
+  <si>
+    <t>9840024123</t>
+  </si>
+  <si>
+    <t>9840057831</t>
+  </si>
+  <si>
+    <t>9840041312</t>
+  </si>
+  <si>
+    <t>9840042182</t>
+  </si>
+  <si>
+    <t>9840029858</t>
+  </si>
+  <si>
+    <t>9840043920</t>
+  </si>
+  <si>
+    <t>9840041664</t>
+  </si>
+  <si>
+    <t>9840059374</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>9840062386</t>
+  </si>
+  <si>
+    <t>9840084564</t>
+  </si>
+  <si>
+    <t>9840053094</t>
+  </si>
+  <si>
+    <t>9840012424</t>
+  </si>
+  <si>
+    <t>9840085994</t>
+  </si>
+  <si>
+    <t>9840002163</t>
+  </si>
+  <si>
+    <t>9840070346</t>
+  </si>
+  <si>
+    <t>9840026655</t>
+  </si>
+  <si>
+    <t>9840037695</t>
+  </si>
+  <si>
+    <t>9840058764</t>
+  </si>
+  <si>
+    <t>9840062076</t>
+  </si>
+  <si>
+    <t>9840043596</t>
+  </si>
+  <si>
+    <t>9840005483</t>
+  </si>
+  <si>
+    <t>9840008583</t>
+  </si>
+  <si>
+    <t>9840066189</t>
+  </si>
+  <si>
+    <t>9840087239</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -737,93 +792,93 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:O18"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="AH2" sqref="AH2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29.54296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.90625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.54296875" customWidth="1"/>
-    <col min="20" max="20" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.54296875" customWidth="1"/>
-    <col min="23" max="23" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.54296875" customWidth="1"/>
-    <col min="26" max="26" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="9.6328125" customWidth="1"/>
-    <col min="34" max="35" width="15.26953125" customWidth="1"/>
-    <col min="36" max="36" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="17.81640625" customWidth="1"/>
-    <col min="38" max="38" width="27.36328125" bestFit="1" customWidth="1"/>
-    <col min="39" max="40" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="42" max="43" width="15.26953125" customWidth="1"/>
-    <col min="44" max="44" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="45" max="46" width="11.453125" customWidth="1"/>
-    <col min="47" max="47" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="48" max="54" width="11.453125" customWidth="1"/>
-    <col min="55" max="55" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="52.140625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.42578125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="26.140625"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.7109375"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="10.85546875"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="24.5703125"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="18.7109375"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="23.42578125"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="29.5703125"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="20.0"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="9.140625"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="15.85546875"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="14.28515625"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="10.5703125"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="6.140625"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="7.5703125"/>
+    <col min="19" max="19" customWidth="true" width="10.5703125"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="6.140625"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="7.5703125"/>
+    <col min="22" max="22" customWidth="true" width="10.5703125"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="6.140625"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="7.5703125"/>
+    <col min="25" max="25" customWidth="true" width="10.5703125"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="6.140625"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="7.5703125"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="10.5703125"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="6.140625"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="7.5703125"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="10.5703125"/>
+    <col min="32" max="33" customWidth="true" width="9.5703125"/>
+    <col min="34" max="35" customWidth="true" width="15.28515625"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="11.42578125"/>
+    <col min="37" max="37" customWidth="true" width="17.85546875"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" width="27.42578125"/>
+    <col min="39" max="40" bestFit="true" customWidth="true" width="13.85546875"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" width="15.28515625"/>
+    <col min="42" max="43" customWidth="true" width="15.28515625"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" width="11.42578125"/>
+    <col min="45" max="46" customWidth="true" width="11.42578125"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" width="11.42578125"/>
+    <col min="48" max="54" customWidth="true" width="11.42578125"/>
+    <col min="55" max="55" bestFit="true" customWidth="true" width="11.85546875"/>
+    <col min="57" max="57" bestFit="true" customWidth="true" width="10.7109375"/>
+    <col min="58" max="58" bestFit="true" customWidth="true" width="10.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" t="s" s="0">
         <v>6</v>
       </c>
       <c r="M1" s="4" t="s">
@@ -832,143 +887,143 @@
       <c r="N1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AB1" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AC1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AD1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AE1" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AF1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AG1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AH1" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AI1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AJ1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AK1" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AL1" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AM1" t="s" s="0">
         <v>64</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AN1" t="s" s="0">
         <v>65</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AO1" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AP1" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AQ1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AR1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AS1" t="s" s="0">
         <v>59</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AT1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AU1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AV1" t="s" s="0">
         <v>60</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AW1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AX1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AY1" t="s" s="0">
         <v>61</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="AZ1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BA1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BB1" t="s" s="0">
         <v>62</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BC1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BD1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BE1" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BF1" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BG1" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -978,31 +1033,31 @@
       <c r="C2" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F2" t="s">
-        <v>90</v>
+      <c r="F2" t="s" s="0">
+        <v>108</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" t="s" s="0">
         <v>40</v>
       </c>
       <c r="M2" s="4" t="s">
@@ -1011,43 +1066,43 @@
       <c r="N2" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" t="s" s="0">
         <v>17</v>
       </c>
       <c r="P2" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="Q2" t="s">
-        <v>17</v>
-      </c>
-      <c r="R2" t="s">
+      <c r="Q2" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="R2" t="s" s="0">
         <v>48</v>
       </c>
       <c r="S2" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="T2" t="s">
+      <c r="T2" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="U2" t="s">
+      <c r="U2" t="s" s="0">
         <v>48</v>
       </c>
       <c r="V2" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="W2" t="s">
-        <v>17</v>
-      </c>
-      <c r="X2" t="s">
+      <c r="W2" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="X2" t="s" s="0">
         <v>48</v>
       </c>
       <c r="Y2" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="Z2" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AA2" t="s" s="0">
         <v>48</v>
       </c>
       <c r="AB2" s="9" t="s">
@@ -1077,20 +1132,20 @@
       <c r="AJ2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AK2" t="s" s="0">
         <v>29</v>
       </c>
       <c r="AL2" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AM2" t="s">
-        <v>102</v>
-      </c>
-      <c r="AN2">
+      <c r="AM2" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="AN2" s="0">
         <v>0</v>
       </c>
-      <c r="AO2" t="s">
-        <v>102</v>
+      <c r="AO2" t="s" s="0">
+        <v>90</v>
       </c>
       <c r="AP2" s="8" t="s">
         <v>84</v>
@@ -1142,7 +1197,7 @@
       </c>
       <c r="BF2" s="4"/>
     </row>
-    <row r="3" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -1152,28 +1207,28 @@
       <c r="C3" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F3" t="s">
-        <v>97</v>
+      <c r="F3" t="s" s="0">
+        <v>110</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" t="s" s="0">
         <v>13</v>
       </c>
       <c r="L3" s="4" t="s">
@@ -1185,11 +1240,11 @@
       <c r="N3" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="O3" t="s">
+      <c r="O3" t="s" s="0">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
@@ -1199,28 +1254,28 @@
       <c r="C4" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F4" t="s">
-        <v>98</v>
+      <c r="F4" t="s" s="0">
+        <v>111</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" t="s" s="0">
         <v>13</v>
       </c>
       <c r="L4" s="4" t="s">
@@ -1232,11 +1287,11 @@
       <c r="N4" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="O4" t="s">
+      <c r="O4" t="s" s="0">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -1246,28 +1301,28 @@
       <c r="C5" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F5" t="s">
-        <v>101</v>
+      <c r="F5" t="s" s="0">
+        <v>112</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" t="s" s="0">
         <v>13</v>
       </c>
       <c r="L5" s="4" t="s">
@@ -1279,12 +1334,12 @@
       <c r="N5" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="O5" t="s">
+      <c r="O5" t="s" s="0">
         <v>17</v>
       </c>
       <c r="AE5" s="4"/>
     </row>
-    <row r="6" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -1294,31 +1349,31 @@
       <c r="C6" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F6" t="s">
-        <v>91</v>
+      <c r="F6" t="s" s="0">
+        <v>113</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" t="s" s="0">
         <v>35</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" t="s" s="0">
         <v>41</v>
       </c>
       <c r="M6" s="4" t="s">
@@ -1327,11 +1382,11 @@
       <c r="N6" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="O6" t="s">
+      <c r="O6" t="s" s="0">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
@@ -1341,14 +1396,14 @@
       <c r="C7" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F7" t="s">
-        <v>103</v>
+      <c r="F7" t="s" s="0">
+        <v>114</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>11</v>
@@ -1356,16 +1411,16 @@
       <c r="H7" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" t="s" s="0">
         <v>40</v>
       </c>
       <c r="M7" s="4" t="s">
@@ -1374,11 +1429,11 @@
       <c r="N7" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="O7" t="s">
+      <c r="O7" t="s" s="0">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
@@ -1388,31 +1443,31 @@
       <c r="C8" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F8" t="s">
-        <v>99</v>
+      <c r="F8" t="s" s="0">
+        <v>115</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8" t="s" s="0">
         <v>39</v>
       </c>
       <c r="M8" s="4" t="s">
@@ -1421,11 +1476,11 @@
       <c r="N8" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="O8" t="s">
+      <c r="O8" t="s" s="0">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -1435,31 +1490,31 @@
       <c r="C9" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F9" t="s">
-        <v>104</v>
+      <c r="F9" t="s" s="0">
+        <v>116</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L9" t="s" s="0">
         <v>66</v>
       </c>
       <c r="M9" s="4" t="s">
@@ -1468,11 +1523,11 @@
       <c r="N9" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="O9" t="s">
+      <c r="O9" t="s" s="0">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -1482,31 +1537,31 @@
       <c r="C10" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F10" t="s">
-        <v>100</v>
+      <c r="F10" t="s" s="0">
+        <v>117</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L10" t="s" s="0">
         <v>39</v>
       </c>
       <c r="M10" s="4" t="s">
@@ -1515,11 +1570,11 @@
       <c r="N10" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="O10" t="s">
+      <c r="O10" t="s" s="0">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -1529,31 +1584,31 @@
       <c r="C11" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F11" t="s">
-        <v>92</v>
+      <c r="F11" t="s" s="0">
+        <v>118</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" t="s" s="0">
         <v>72</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L11" t="s">
+      <c r="L11" t="s" s="0">
         <v>80</v>
       </c>
       <c r="M11" s="4" t="s">
@@ -1562,11 +1617,11 @@
       <c r="N11" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="O11" t="s">
+      <c r="O11" t="s" s="0">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -1576,31 +1631,31 @@
       <c r="C12" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F12" t="s">
-        <v>93</v>
+      <c r="F12" t="s" s="0">
+        <v>119</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" t="s" s="0">
         <v>73</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K12" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L12" t="s">
+      <c r="L12" t="s" s="0">
         <v>40</v>
       </c>
       <c r="M12" s="4" t="s">
@@ -1609,11 +1664,11 @@
       <c r="N12" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="O12" t="s">
+      <c r="O12" t="s" s="0">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
@@ -1623,31 +1678,31 @@
       <c r="C13" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F13" t="s">
-        <v>105</v>
+      <c r="F13" t="s" s="0">
+        <v>120</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" t="s" s="0">
         <v>74</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L13" t="s">
+      <c r="L13" t="s" s="0">
         <v>66</v>
       </c>
       <c r="M13" s="4" t="s">
@@ -1656,11 +1711,11 @@
       <c r="N13" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="O13" t="s">
+      <c r="O13" t="s" s="0">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>20</v>
       </c>
@@ -1670,31 +1725,31 @@
       <c r="C14" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F14" t="s">
-        <v>94</v>
+      <c r="F14" t="s" s="0">
+        <v>121</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" t="s" s="0">
         <v>75</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K14" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L14" t="s">
+      <c r="L14" t="s" s="0">
         <v>41</v>
       </c>
       <c r="M14" s="4" t="s">
@@ -1703,11 +1758,11 @@
       <c r="N14" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="O14" t="s">
+      <c r="O14" t="s" s="0">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
@@ -1717,28 +1772,28 @@
       <c r="C15" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F15" t="s">
-        <v>106</v>
+      <c r="F15" t="s" s="0">
+        <v>122</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" t="s" s="0">
         <v>76</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J15" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K15" t="s" s="0">
         <v>13</v>
       </c>
       <c r="L15" s="10" t="s">
@@ -1750,11 +1805,11 @@
       <c r="N15" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="O15" t="s">
+      <c r="O15" t="s" s="0">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>20</v>
       </c>
@@ -1764,31 +1819,31 @@
       <c r="C16" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F16" t="s">
-        <v>95</v>
+      <c r="F16" t="s" s="0">
+        <v>123</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" t="s" s="0">
         <v>77</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J16" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K16" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L16" t="s">
+      <c r="L16" t="s" s="0">
         <v>80</v>
       </c>
       <c r="M16" s="4" t="s">
@@ -1797,11 +1852,11 @@
       <c r="N16" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="O16" t="s">
+      <c r="O16" t="s" s="0">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
@@ -1811,31 +1866,31 @@
       <c r="C17" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F17" t="s">
-        <v>107</v>
+      <c r="F17" t="s" s="0">
+        <v>124</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" t="s" s="0">
         <v>78</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J17" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K17" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L17" t="s">
+      <c r="L17" t="s" s="0">
         <v>40</v>
       </c>
       <c r="M17" s="4" t="s">
@@ -1844,11 +1899,11 @@
       <c r="N17" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="O17" t="s">
+      <c r="O17" t="s" s="0">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
@@ -1858,31 +1913,31 @@
       <c r="C18" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F18" t="s">
-        <v>96</v>
+      <c r="F18" t="s" s="0">
+        <v>125</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" t="s" s="0">
         <v>79</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J18" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="K18" t="s">
+      <c r="K18" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L18" t="s">
+      <c r="L18" t="s" s="0">
         <v>66</v>
       </c>
       <c r="M18" s="4" t="s">
@@ -1891,7 +1946,7 @@
       <c r="N18" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="O18" t="s">
+      <c r="O18" t="s" s="0">
         <v>17</v>
       </c>
     </row>

--- a/testData/WebForm/TC037_WF_RRYN_OneYN_TwoN_Test.xlsx
+++ b/testData/WebForm/TC037_WF_RRYN_OneYN_TwoN_Test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="142">
   <si>
     <t>BuildUrl</t>
   </si>
@@ -397,6 +397,54 @@
   </si>
   <si>
     <t>9840087239</t>
+  </si>
+  <si>
+    <t>9840049023</t>
+  </si>
+  <si>
+    <t>9840074826</t>
+  </si>
+  <si>
+    <t>9840091466</t>
+  </si>
+  <si>
+    <t>9840054626</t>
+  </si>
+  <si>
+    <t>9840021679</t>
+  </si>
+  <si>
+    <t>9840045904</t>
+  </si>
+  <si>
+    <t>9840005461</t>
+  </si>
+  <si>
+    <t>9840023315</t>
+  </si>
+  <si>
+    <t>9840026886</t>
+  </si>
+  <si>
+    <t>9840027092</t>
+  </si>
+  <si>
+    <t>9840013072</t>
+  </si>
+  <si>
+    <t>9840059923</t>
+  </si>
+  <si>
+    <t>9840048548</t>
+  </si>
+  <si>
+    <t>9840015327</t>
+  </si>
+  <si>
+    <t>9840038293</t>
+  </si>
+  <si>
+    <t>9840050348</t>
   </si>
 </sst>
 </file>
@@ -1040,7 +1088,7 @@
         <v>16</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>11</v>
@@ -1139,7 +1187,7 @@
         <v>89</v>
       </c>
       <c r="AM2" t="s" s="0">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="AN2" s="0">
         <v>0</v>
@@ -1214,7 +1262,7 @@
         <v>16</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>11</v>
@@ -1261,7 +1309,7 @@
         <v>16</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>11</v>
@@ -1308,7 +1356,7 @@
         <v>16</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>11</v>
@@ -1356,7 +1404,7 @@
         <v>16</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>11</v>
@@ -1403,7 +1451,7 @@
         <v>16</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>11</v>
@@ -1450,7 +1498,7 @@
         <v>16</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>11</v>
@@ -1497,7 +1545,7 @@
         <v>16</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>11</v>
@@ -1544,7 +1592,7 @@
         <v>16</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>11</v>
@@ -1591,7 +1639,7 @@
         <v>16</v>
       </c>
       <c r="F11" t="s" s="0">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>11</v>
@@ -1638,7 +1686,7 @@
         <v>16</v>
       </c>
       <c r="F12" t="s" s="0">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>11</v>
@@ -1685,7 +1733,7 @@
         <v>16</v>
       </c>
       <c r="F13" t="s" s="0">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>11</v>
@@ -1732,7 +1780,7 @@
         <v>16</v>
       </c>
       <c r="F14" t="s" s="0">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>11</v>
@@ -1779,7 +1827,7 @@
         <v>16</v>
       </c>
       <c r="F15" t="s" s="0">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>11</v>
@@ -1826,7 +1874,7 @@
         <v>16</v>
       </c>
       <c r="F16" t="s" s="0">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>11</v>
@@ -1873,7 +1921,7 @@
         <v>16</v>
       </c>
       <c r="F17" t="s" s="0">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>11</v>
@@ -1920,7 +1968,7 @@
         <v>16</v>
       </c>
       <c r="F18" t="s" s="0">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>11</v>

--- a/testData/WebForm/TC037_WF_RRYN_OneYN_TwoN_Test.xlsx
+++ b/testData/WebForm/TC037_WF_RRYN_OneYN_TwoN_Test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="110">
   <si>
     <t>BuildUrl</t>
   </si>
@@ -294,157 +294,61 @@
     <t>0</t>
   </si>
   <si>
-    <t>9840010858</t>
-  </si>
-  <si>
-    <t>9840011383</t>
-  </si>
-  <si>
-    <t>9840061740</t>
-  </si>
-  <si>
-    <t>9840086841</t>
-  </si>
-  <si>
-    <t>9840080674</t>
-  </si>
-  <si>
-    <t>9840057289</t>
-  </si>
-  <si>
-    <t>9840022618</t>
-  </si>
-  <si>
-    <t>9840070672</t>
-  </si>
-  <si>
-    <t>9840070468</t>
-  </si>
-  <si>
-    <t>9840061819</t>
-  </si>
-  <si>
-    <t>9840024123</t>
-  </si>
-  <si>
-    <t>9840057831</t>
-  </si>
-  <si>
-    <t>9840041312</t>
-  </si>
-  <si>
-    <t>9840042182</t>
-  </si>
-  <si>
-    <t>9840029858</t>
-  </si>
-  <si>
-    <t>9840043920</t>
-  </si>
-  <si>
-    <t>9840041664</t>
-  </si>
-  <si>
-    <t>9840059374</t>
+    <t>9840049023</t>
+  </si>
+  <si>
+    <t>9840074826</t>
+  </si>
+  <si>
+    <t>9840091466</t>
+  </si>
+  <si>
+    <t>9840054626</t>
+  </si>
+  <si>
+    <t>9840021679</t>
+  </si>
+  <si>
+    <t>9840045904</t>
+  </si>
+  <si>
+    <t>9840005461</t>
+  </si>
+  <si>
+    <t>9840023315</t>
+  </si>
+  <si>
+    <t>9840026886</t>
+  </si>
+  <si>
+    <t>9840027092</t>
+  </si>
+  <si>
+    <t>9840013072</t>
+  </si>
+  <si>
+    <t>9840059923</t>
+  </si>
+  <si>
+    <t>9840048548</t>
+  </si>
+  <si>
+    <t>9840015327</t>
+  </si>
+  <si>
+    <t>9840038293</t>
+  </si>
+  <si>
+    <t>9840050348</t>
+  </si>
+  <si>
+    <t>9840097715</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>9840062386</t>
-  </si>
-  <si>
-    <t>9840084564</t>
-  </si>
-  <si>
-    <t>9840053094</t>
-  </si>
-  <si>
-    <t>9840012424</t>
-  </si>
-  <si>
-    <t>9840085994</t>
-  </si>
-  <si>
-    <t>9840002163</t>
-  </si>
-  <si>
-    <t>9840070346</t>
-  </si>
-  <si>
-    <t>9840026655</t>
-  </si>
-  <si>
-    <t>9840037695</t>
-  </si>
-  <si>
-    <t>9840058764</t>
-  </si>
-  <si>
-    <t>9840062076</t>
-  </si>
-  <si>
-    <t>9840043596</t>
-  </si>
-  <si>
-    <t>9840005483</t>
-  </si>
-  <si>
-    <t>9840008583</t>
-  </si>
-  <si>
-    <t>9840066189</t>
-  </si>
-  <si>
-    <t>9840087239</t>
-  </si>
-  <si>
-    <t>9840049023</t>
-  </si>
-  <si>
-    <t>9840074826</t>
-  </si>
-  <si>
-    <t>9840091466</t>
-  </si>
-  <si>
-    <t>9840054626</t>
-  </si>
-  <si>
-    <t>9840021679</t>
-  </si>
-  <si>
-    <t>9840045904</t>
-  </si>
-  <si>
-    <t>9840005461</t>
-  </si>
-  <si>
-    <t>9840023315</t>
-  </si>
-  <si>
-    <t>9840026886</t>
-  </si>
-  <si>
-    <t>9840027092</t>
-  </si>
-  <si>
-    <t>9840013072</t>
-  </si>
-  <si>
-    <t>9840059923</t>
-  </si>
-  <si>
-    <t>9840048548</t>
-  </si>
-  <si>
-    <t>9840015327</t>
-  </si>
-  <si>
-    <t>9840038293</t>
-  </si>
-  <si>
-    <t>9840050348</t>
+    <t>9840059976</t>
   </si>
 </sst>
 </file>
@@ -840,8 +744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="AH2" sqref="AH2"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="BB2" sqref="BB2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1088,7 +992,7 @@
         <v>16</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>126</v>
+        <v>91</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>11</v>
@@ -1115,7 +1019,7 @@
         <v>51</v>
       </c>
       <c r="O2" t="s" s="0">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="P2" s="7" t="s">
         <v>67</v>
@@ -1187,13 +1091,13 @@
         <v>89</v>
       </c>
       <c r="AM2" t="s" s="0">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="AN2" s="0">
         <v>0</v>
       </c>
       <c r="AO2" t="s" s="0">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="AP2" s="8" t="s">
         <v>84</v>
@@ -1262,7 +1166,7 @@
         <v>16</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>11</v>
@@ -1309,7 +1213,7 @@
         <v>16</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>128</v>
+        <v>93</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>11</v>
@@ -1336,7 +1240,7 @@
         <v>51</v>
       </c>
       <c r="O4" t="s" s="0">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:59" x14ac:dyDescent="0.25">
@@ -1356,7 +1260,7 @@
         <v>16</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>11</v>
@@ -1383,7 +1287,7 @@
         <v>45</v>
       </c>
       <c r="O5" t="s" s="0">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="AE5" s="4"/>
     </row>
@@ -1404,7 +1308,7 @@
         <v>16</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>11</v>
@@ -1431,7 +1335,7 @@
         <v>52</v>
       </c>
       <c r="O6" t="s" s="0">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:59" x14ac:dyDescent="0.25">
@@ -1451,7 +1355,7 @@
         <v>16</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>131</v>
+        <v>96</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>11</v>
@@ -1478,7 +1382,7 @@
         <v>45</v>
       </c>
       <c r="O7" t="s" s="0">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:59" x14ac:dyDescent="0.25">
@@ -1498,7 +1402,7 @@
         <v>16</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>11</v>
@@ -1525,7 +1429,7 @@
         <v>52</v>
       </c>
       <c r="O8" t="s" s="0">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:59" x14ac:dyDescent="0.25">
@@ -1545,7 +1449,7 @@
         <v>16</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>11</v>
@@ -1592,7 +1496,7 @@
         <v>16</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>11</v>
@@ -1619,7 +1523,7 @@
         <v>52</v>
       </c>
       <c r="O10" t="s" s="0">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:59" x14ac:dyDescent="0.25">
@@ -1639,7 +1543,7 @@
         <v>16</v>
       </c>
       <c r="F11" t="s" s="0">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>11</v>
@@ -1666,7 +1570,7 @@
         <v>50</v>
       </c>
       <c r="O11" t="s" s="0">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:59" x14ac:dyDescent="0.25">
@@ -1686,7 +1590,7 @@
         <v>16</v>
       </c>
       <c r="F12" t="s" s="0">
-        <v>136</v>
+        <v>101</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>11</v>
@@ -1713,7 +1617,7 @@
         <v>51</v>
       </c>
       <c r="O12" t="s" s="0">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:59" x14ac:dyDescent="0.25">
@@ -1733,7 +1637,7 @@
         <v>16</v>
       </c>
       <c r="F13" t="s" s="0">
-        <v>137</v>
+        <v>102</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>11</v>
@@ -1760,7 +1664,7 @@
         <v>45</v>
       </c>
       <c r="O13" t="s" s="0">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:59" x14ac:dyDescent="0.25">
@@ -1780,7 +1684,7 @@
         <v>16</v>
       </c>
       <c r="F14" t="s" s="0">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>11</v>
@@ -1807,7 +1711,7 @@
         <v>52</v>
       </c>
       <c r="O14" t="s" s="0">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:59" x14ac:dyDescent="0.25">
@@ -1827,7 +1731,7 @@
         <v>16</v>
       </c>
       <c r="F15" t="s" s="0">
-        <v>133</v>
+        <v>98</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>11</v>
@@ -1854,7 +1758,7 @@
         <v>45</v>
       </c>
       <c r="O15" t="s" s="0">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:59" x14ac:dyDescent="0.25">
@@ -1874,7 +1778,7 @@
         <v>16</v>
       </c>
       <c r="F16" t="s" s="0">
-        <v>139</v>
+        <v>104</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>11</v>
@@ -1901,7 +1805,7 @@
         <v>51</v>
       </c>
       <c r="O16" t="s" s="0">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -1921,7 +1825,7 @@
         <v>16</v>
       </c>
       <c r="F17" t="s" s="0">
-        <v>140</v>
+        <v>105</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>11</v>
@@ -1948,7 +1852,7 @@
         <v>45</v>
       </c>
       <c r="O17" t="s" s="0">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -1968,7 +1872,7 @@
         <v>16</v>
       </c>
       <c r="F18" t="s" s="0">
-        <v>141</v>
+        <v>106</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>11</v>
@@ -1995,7 +1899,7 @@
         <v>52</v>
       </c>
       <c r="O18" t="s" s="0">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
